--- a/data/describe/Forward_bigfive.xlsx
+++ b/data/describe/Forward_bigfive.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaca253\Documents\personality-gpt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaca253\Documents\wordalisations\data\describe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED67EAE5-6B70-44AE-9E58-B7EA0F809E16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF55D183-CF1C-4B9C-9419-F988F30E2A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{AFEFF31D-C8C2-4721-8CB7-A78D0EE416FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{AFEFF31D-C8C2-4721-8CB7-A78D0EE416FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>user</t>
   </si>
@@ -246,6 +249,54 @@
   </si>
   <si>
     <t>Neuroticism is similar but not identical to the Freudian concept of neurosis. Some psychologists prefer the term emotional instability to differentiate it from the term neurotic used in career tests.</t>
+  </si>
+  <si>
+    <t>What is the Big-Five framework?</t>
+  </si>
+  <si>
+    <t>The Big-Five framework is a hierarchical model of personality traits that describes personality using five broad factors.</t>
+  </si>
+  <si>
+    <t>What do the bipolar factors in the Big-Five represent?</t>
+  </si>
+  <si>
+    <t>Each bipolar factor (e.g., Extraversion vs. Introversion) summarizes several more specific facets, which in turn include many narrower traits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What does the Big-Five framework suggest about individual differences in personality?</t>
+  </si>
+  <si>
+    <t>It suggests that most individual differences in human personality can be classified into five broad, empirically derived domains.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What traits are associated with being Extraverted?</t>
+  </si>
+  <si>
+    <t>Extraverted people are sociable, assertive, talkative, and active, and they are not reserved or shy.</t>
+  </si>
+  <si>
+    <t>What traits are associated with being Agreeable?</t>
+  </si>
+  <si>
+    <t>Agreeable people are trusting, generous, sympathetic, and cooperative, and they are not aggressive or cold.</t>
+  </si>
+  <si>
+    <t>What traits are associated with being Dependable?</t>
+  </si>
+  <si>
+    <t>Dependable individuals are hardworking, responsible, self-disciplined, and thorough, and they are not careless or impulsive.</t>
+  </si>
+  <si>
+    <t>What traits are associated with being Emotionally Stable?</t>
+  </si>
+  <si>
+    <t>Emotionally stable people are relaxed, calm, and self-confident, and they are not anxious, moody, easily upset, or stressed.</t>
+  </si>
+  <si>
+    <t>What traits are associated with being Open to Experience?</t>
+  </si>
+  <si>
+    <t>People open to experience are curious, reflective, imaginative, creative, deep, and open-minded, and they are not conventional.</t>
   </si>
 </sst>
 </file>
@@ -624,19 +675,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9778A761-92C8-4D05-9A13-5E14EABC8286}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.5546875" customWidth="1"/>
-    <col min="2" max="2" width="106.44140625" customWidth="1"/>
+    <col min="1" max="1" width="57.54296875" customWidth="1"/>
+    <col min="2" max="2" width="106.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -644,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -652,7 +703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -660,7 +711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="46.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -668,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -676,7 +727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="46.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -684,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="34.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -692,7 +743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -700,7 +751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -708,7 +759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -716,7 +767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -724,7 +775,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="34.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -732,7 +783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -740,7 +791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -748,7 +799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
@@ -756,7 +807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -764,7 +815,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="47.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -772,7 +823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
@@ -780,7 +831,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -788,7 +839,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
@@ -796,7 +847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
@@ -804,7 +855,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
@@ -812,7 +863,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -820,7 +871,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
@@ -828,7 +879,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
@@ -836,7 +887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -844,7 +895,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -852,7 +903,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
@@ -860,7 +911,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>56</v>
       </c>
@@ -868,7 +919,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
@@ -876,7 +927,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>60</v>
       </c>
@@ -884,7 +935,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -892,12 +943,76 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
